--- a/src/main/resources/KTP_REFUND_AFTER_Form.xlsx
+++ b/src/main/resources/KTP_REFUND_AFTER_Form.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/backend/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/backend/sdk/tpay-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B12902-3389-F141-9A22-1DE77DCFC534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338E35B2-AEC4-9B41-BECE-A78181CF71D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51220" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Table 3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$Z$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Table 1'!$A$1:$Z$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1168,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1253,6 +1253,63 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1262,6 +1319,9 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1274,19 +1334,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,9 +1373,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1331,59 +1382,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1825,10 +1828,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:Z44"/>
+  <dimension ref="B1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="113" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:R9"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="113" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42:K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15"/>
@@ -1860,89 +1863,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
     </row>
     <row r="2" spans="2:26" ht="40" customHeight="1">
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="36"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="36"/>
+      <c r="Y2" s="36"/>
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="2:26" ht="20" customHeight="1">
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="2:26" ht="20" customHeight="1">
@@ -1973,425 +1976,425 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1">
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="2:26" ht="17.25" customHeight="1">
-      <c r="B6" s="69" t="s">
+      <c r="B6" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="71"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="42"/>
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="2:26" ht="18" customHeight="1">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="54" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="62"/>
-      <c r="U7" s="62"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="62"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="64"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="30"/>
+      <c r="X7" s="30"/>
+      <c r="Y7" s="31"/>
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="2:26" ht="18" customHeight="1">
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="63"/>
-      <c r="M8" s="54" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="62"/>
-      <c r="U8" s="62"/>
-      <c r="V8" s="62"/>
-      <c r="W8" s="62"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="64"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="31"/>
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="2:26" ht="31.5" customHeight="1">
-      <c r="B9" s="49"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="54" t="s">
+      <c r="B9" s="67"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="61" t="s">
+      <c r="E9" s="34"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="45"/>
+      <c r="R9" s="46"/>
+      <c r="S9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="62"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="62"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="64"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="29"/>
+      <c r="W9" s="30"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="31"/>
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="2:26" ht="5" customHeight="1">
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="38"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="38"/>
-      <c r="Y10" s="39"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="35"/>
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="2:26" ht="19.5" customHeight="1">
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="42"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+      <c r="R11" s="59"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="59"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+      <c r="W11" s="59"/>
+      <c r="X11" s="59"/>
+      <c r="Y11" s="60"/>
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="2:26" ht="18" customHeight="1">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="54" t="s">
+      <c r="C12" s="34"/>
+      <c r="D12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="54" t="s">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="50"/>
-      <c r="N12" s="54" t="s">
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="54" t="s">
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="50"/>
-      <c r="U12" s="54" t="s">
+      <c r="T12" s="34"/>
+      <c r="U12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="V12" s="38"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="54" t="s">
+      <c r="V12" s="33"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="Y12" s="39"/>
+      <c r="Y12" s="35"/>
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="2:26" ht="18.75" customHeight="1">
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="30"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="28">
+      <c r="C13" s="34"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="47">
         <v>0</v>
       </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="28">
+      <c r="T13" s="48"/>
+      <c r="U13" s="47">
         <v>0</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="28">
+      <c r="V13" s="49"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="47">
         <v>0</v>
       </c>
-      <c r="Y13" s="55"/>
+      <c r="Y13" s="50"/>
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="2:26" ht="5" customHeight="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="38"/>
-      <c r="Y14" s="39"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
+      <c r="X14" s="33"/>
+      <c r="Y14" s="35"/>
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="2:26" ht="19.25" customHeight="1">
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="45"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="62"/>
+      <c r="W15" s="62"/>
+      <c r="X15" s="62"/>
+      <c r="Y15" s="63"/>
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="2:26" ht="21" customHeight="1">
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="31" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="31" t="s">
+      <c r="F16" s="52"/>
+      <c r="G16" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="31" t="s">
+      <c r="H16" s="52"/>
+      <c r="I16" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="31" t="s">
+      <c r="J16" s="55"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="58"/>
-      <c r="N16" s="58"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="31" t="s">
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="54" t="s">
+      <c r="Q16" s="52"/>
+      <c r="R16" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="38"/>
-      <c r="X16" s="38"/>
-      <c r="Y16" s="39"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="35"/>
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="2:26" ht="25" customHeight="1">
-      <c r="B17" s="57"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="59"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="59"/>
-      <c r="O17" s="34"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="54" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="S17" s="50"/>
+      <c r="S17" s="34"/>
       <c r="T17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="U17" s="54" t="s">
+      <c r="U17" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="V17" s="50"/>
-      <c r="W17" s="54" t="s">
+      <c r="V17" s="34"/>
+      <c r="W17" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X17" s="50"/>
+      <c r="X17" s="34"/>
       <c r="Y17" s="21" t="s">
         <v>8</v>
       </c>
@@ -2399,271 +2402,271 @@
     </row>
     <row r="18" spans="2:26" ht="20" customHeight="1">
       <c r="B18" s="25"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="29"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="29"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="29"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="48"/>
       <c r="T18" s="26"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="29"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="29"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="48"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="48"/>
       <c r="Y18" s="27"/>
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="2:26" ht="20" customHeight="1">
       <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="29"/>
-      <c r="L19" s="28"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="29"/>
-      <c r="R19" s="28"/>
-      <c r="S19" s="29"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="49"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="48"/>
       <c r="T19" s="26"/>
-      <c r="U19" s="28"/>
-      <c r="V19" s="29"/>
-      <c r="W19" s="28"/>
-      <c r="X19" s="29"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="48"/>
       <c r="Y19" s="27"/>
       <c r="Z19" s="4"/>
     </row>
     <row r="20" spans="2:26" ht="20" customHeight="1">
       <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="29"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="29"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="29"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="49"/>
+      <c r="N20" s="49"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="48"/>
       <c r="T20" s="26"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="29"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="29"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="48"/>
       <c r="Y20" s="27"/>
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="2:26" ht="20" customHeight="1">
       <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="29"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="29"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="29"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="24"/>
       <c r="T21" s="26"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="29"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="29"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="24"/>
       <c r="Y21" s="27"/>
       <c r="Z21" s="4"/>
     </row>
     <row r="22" spans="2:26" ht="20" customHeight="1">
       <c r="B22" s="25"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="29"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="29"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="29"/>
-      <c r="R22" s="28"/>
-      <c r="S22" s="29"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="24"/>
       <c r="T22" s="26"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="29"/>
-      <c r="W22" s="28"/>
-      <c r="X22" s="29"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="24"/>
       <c r="Y22" s="27"/>
       <c r="Z22" s="4"/>
     </row>
     <row r="23" spans="2:26" ht="20" customHeight="1">
       <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="28"/>
-      <c r="S23" s="29"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="24"/>
       <c r="T23" s="26"/>
-      <c r="U23" s="28"/>
-      <c r="V23" s="29"/>
-      <c r="W23" s="28"/>
-      <c r="X23" s="29"/>
+      <c r="U23" s="23"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="24"/>
       <c r="Y23" s="27"/>
       <c r="Z23" s="4"/>
     </row>
     <row r="24" spans="2:26" ht="20" customHeight="1">
       <c r="B24" s="25"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="29"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="24"/>
       <c r="T24" s="26"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="29"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="24"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="24"/>
       <c r="Y24" s="27"/>
       <c r="Z24" s="4"/>
     </row>
     <row r="25" spans="2:26" ht="20" customHeight="1">
       <c r="B25" s="25"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="29"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="28"/>
-      <c r="S25" s="29"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="24"/>
       <c r="T25" s="26"/>
-      <c r="U25" s="28"/>
-      <c r="V25" s="29"/>
-      <c r="W25" s="28"/>
-      <c r="X25" s="29"/>
+      <c r="U25" s="23"/>
+      <c r="V25" s="24"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="24"/>
       <c r="Y25" s="27"/>
       <c r="Z25" s="4"/>
     </row>
     <row r="26" spans="2:26" ht="20" customHeight="1">
       <c r="B26" s="25"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="28"/>
-      <c r="S26" s="29"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="23"/>
+      <c r="S26" s="24"/>
       <c r="T26" s="26"/>
-      <c r="U26" s="28"/>
-      <c r="V26" s="29"/>
-      <c r="W26" s="28"/>
-      <c r="X26" s="29"/>
+      <c r="U26" s="23"/>
+      <c r="V26" s="24"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="24"/>
       <c r="Y26" s="27"/>
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="2:26" ht="20" customHeight="1">
       <c r="B27" s="25"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="28"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="28"/>
-      <c r="S27" s="29"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="24"/>
       <c r="T27" s="26"/>
-      <c r="U27" s="28"/>
-      <c r="V27" s="29"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="29"/>
+      <c r="U27" s="23"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="24"/>
       <c r="Y27" s="27"/>
       <c r="Z27" s="4"/>
     </row>
@@ -2671,26 +2674,26 @@
       <c r="B28" s="25"/>
       <c r="C28" s="23"/>
       <c r="D28" s="24"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="29"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="24"/>
       <c r="T28" s="26"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="29"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="29"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="24"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="24"/>
       <c r="Y28" s="27"/>
       <c r="Z28" s="4"/>
     </row>
@@ -2698,26 +2701,26 @@
       <c r="B29" s="25"/>
       <c r="C29" s="23"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="29"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="24"/>
       <c r="T29" s="26"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="29"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="29"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="24"/>
       <c r="Y29" s="27"/>
       <c r="Z29" s="4"/>
     </row>
@@ -2725,26 +2728,26 @@
       <c r="B30" s="25"/>
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="28"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="29"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="24"/>
       <c r="T30" s="26"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="29"/>
-      <c r="W30" s="28"/>
-      <c r="X30" s="29"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="24"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="24"/>
       <c r="Y30" s="27"/>
       <c r="Z30" s="4"/>
     </row>
@@ -2752,26 +2755,26 @@
       <c r="B31" s="25"/>
       <c r="C31" s="23"/>
       <c r="D31" s="24"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="28"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="29"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="24"/>
       <c r="T31" s="26"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="29"/>
-      <c r="W31" s="28"/>
-      <c r="X31" s="29"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="24"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="24"/>
       <c r="Y31" s="27"/>
       <c r="Z31" s="4"/>
     </row>
@@ -2779,26 +2782,26 @@
       <c r="B32" s="25"/>
       <c r="C32" s="23"/>
       <c r="D32" s="24"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="29"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="24"/>
       <c r="T32" s="26"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="29"/>
-      <c r="W32" s="28"/>
-      <c r="X32" s="29"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="24"/>
+      <c r="W32" s="23"/>
+      <c r="X32" s="24"/>
       <c r="Y32" s="27"/>
       <c r="Z32" s="4"/>
     </row>
@@ -2806,26 +2809,26 @@
       <c r="B33" s="25"/>
       <c r="C33" s="23"/>
       <c r="D33" s="24"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="28"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="28"/>
-      <c r="S33" s="29"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="24"/>
       <c r="T33" s="26"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="29"/>
-      <c r="W33" s="28"/>
-      <c r="X33" s="29"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="24"/>
       <c r="Y33" s="27"/>
       <c r="Z33" s="4"/>
     </row>
@@ -2833,26 +2836,26 @@
       <c r="B34" s="25"/>
       <c r="C34" s="23"/>
       <c r="D34" s="24"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="29"/>
-      <c r="L34" s="28"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="28"/>
-      <c r="S34" s="29"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="24"/>
       <c r="T34" s="26"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="29"/>
-      <c r="W34" s="28"/>
-      <c r="X34" s="29"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="23"/>
+      <c r="X34" s="24"/>
       <c r="Y34" s="27"/>
       <c r="Z34" s="4"/>
     </row>
@@ -2860,26 +2863,26 @@
       <c r="B35" s="25"/>
       <c r="C35" s="23"/>
       <c r="D35" s="24"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="29"/>
-      <c r="L35" s="28"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="28"/>
-      <c r="S35" s="29"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="24"/>
       <c r="T35" s="26"/>
-      <c r="U35" s="28"/>
-      <c r="V35" s="29"/>
-      <c r="W35" s="28"/>
-      <c r="X35" s="29"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="23"/>
+      <c r="X35" s="24"/>
       <c r="Y35" s="27"/>
       <c r="Z35" s="15"/>
     </row>
@@ -2887,132 +2890,799 @@
       <c r="B36" s="25"/>
       <c r="C36" s="23"/>
       <c r="D36" s="24"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="29"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="28"/>
-      <c r="S36" s="29"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="23"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="24"/>
       <c r="T36" s="26"/>
-      <c r="U36" s="28"/>
-      <c r="V36" s="29"/>
-      <c r="W36" s="28"/>
-      <c r="X36" s="29"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="23"/>
+      <c r="X36" s="24"/>
       <c r="Y36" s="27"/>
     </row>
     <row r="37" spans="2:26" ht="20" customHeight="1">
       <c r="B37" s="25"/>
       <c r="C37" s="23"/>
       <c r="D37" s="24"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="29"/>
-      <c r="L37" s="28"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="29"/>
-      <c r="R37" s="28"/>
-      <c r="S37" s="29"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="24"/>
       <c r="T37" s="26"/>
-      <c r="U37" s="28"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="28"/>
-      <c r="X37" s="29"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="23"/>
+      <c r="X37" s="24"/>
       <c r="Y37" s="27"/>
     </row>
     <row r="38" spans="2:26" ht="20" customHeight="1">
       <c r="B38" s="25"/>
       <c r="C38" s="23"/>
       <c r="D38" s="24"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="29"/>
-      <c r="L38" s="28"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="29"/>
-      <c r="R38" s="28"/>
-      <c r="S38" s="29"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="24"/>
       <c r="T38" s="26"/>
-      <c r="U38" s="28"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="28"/>
-      <c r="X38" s="29"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="24"/>
       <c r="Y38" s="27"/>
     </row>
     <row r="39" spans="2:26" ht="20" customHeight="1">
       <c r="B39" s="25"/>
       <c r="C39" s="23"/>
       <c r="D39" s="24"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="29"/>
-      <c r="L39" s="28"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="28"/>
-      <c r="S39" s="29"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="23"/>
+      <c r="S39" s="24"/>
       <c r="T39" s="26"/>
-      <c r="U39" s="28"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="28"/>
-      <c r="X39" s="29"/>
+      <c r="U39" s="23"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="23"/>
+      <c r="X39" s="24"/>
       <c r="Y39" s="27"/>
     </row>
     <row r="40" spans="2:26">
-      <c r="C40" s="14"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="48"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="49"/>
+      <c r="K40" s="48"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="49"/>
+      <c r="N40" s="49"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="47"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="47"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="27"/>
+    </row>
+    <row r="41" spans="2:26">
+      <c r="B41" s="25"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="47"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="47"/>
+      <c r="J41" s="49"/>
+      <c r="K41" s="48"/>
+      <c r="L41" s="47"/>
+      <c r="M41" s="49"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="47"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="47"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="27"/>
+    </row>
+    <row r="42" spans="2:26">
+      <c r="B42" s="25"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="48"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="48"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="47"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="47"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="27"/>
+    </row>
+    <row r="43" spans="2:26">
+      <c r="B43" s="25"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="48"/>
+      <c r="L43" s="47"/>
+      <c r="M43" s="49"/>
+      <c r="N43" s="49"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="47"/>
+      <c r="Q43" s="48"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="47"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="47"/>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="27"/>
     </row>
     <row r="44" spans="2:26">
-      <c r="C44" s="14"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="48"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="49"/>
+      <c r="K44" s="48"/>
+      <c r="L44" s="47"/>
+      <c r="M44" s="49"/>
+      <c r="N44" s="49"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="47"/>
+      <c r="Q44" s="48"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="47"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="47"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="27"/>
+    </row>
+    <row r="45" spans="2:26">
+      <c r="B45" s="25"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="49"/>
+      <c r="K45" s="48"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="49"/>
+      <c r="N45" s="49"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="47"/>
+      <c r="Q45" s="48"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="47"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="47"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="27"/>
+    </row>
+    <row r="46" spans="2:26">
+      <c r="B46" s="25"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="48"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="49"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="47"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="47"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="47"/>
+      <c r="V46" s="48"/>
+      <c r="W46" s="47"/>
+      <c r="X46" s="48"/>
+      <c r="Y46" s="27"/>
+    </row>
+    <row r="47" spans="2:26">
+      <c r="B47" s="25"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="47"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="49"/>
+      <c r="K47" s="48"/>
+      <c r="L47" s="47"/>
+      <c r="M47" s="49"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="48"/>
+      <c r="P47" s="47"/>
+      <c r="Q47" s="48"/>
+      <c r="R47" s="47"/>
+      <c r="S47" s="48"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="47"/>
+      <c r="V47" s="48"/>
+      <c r="W47" s="47"/>
+      <c r="X47" s="48"/>
+      <c r="Y47" s="27"/>
+    </row>
+    <row r="48" spans="2:26">
+      <c r="B48" s="25"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="49"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="49"/>
+      <c r="N48" s="49"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="47"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="47"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="27"/>
+    </row>
+    <row r="49" spans="2:25">
+      <c r="B49" s="25"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="49"/>
+      <c r="K49" s="48"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="49"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="48"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="48"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="48"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="47"/>
+      <c r="V49" s="48"/>
+      <c r="W49" s="47"/>
+      <c r="X49" s="48"/>
+      <c r="Y49" s="27"/>
+    </row>
+    <row r="50" spans="2:25">
+      <c r="B50" s="25"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="49"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="49"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="48"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="48"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="47"/>
+      <c r="V50" s="48"/>
+      <c r="W50" s="47"/>
+      <c r="X50" s="48"/>
+      <c r="Y50" s="27"/>
+    </row>
+    <row r="51" spans="2:25">
+      <c r="B51" s="25"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="47"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="49"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="47"/>
+      <c r="M51" s="49"/>
+      <c r="N51" s="49"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="47"/>
+      <c r="Q51" s="48"/>
+      <c r="R51" s="47"/>
+      <c r="S51" s="48"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="47"/>
+      <c r="V51" s="48"/>
+      <c r="W51" s="47"/>
+      <c r="X51" s="48"/>
+      <c r="Y51" s="27"/>
+    </row>
+    <row r="52" spans="2:25">
+      <c r="B52" s="25"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="48"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="49"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="49"/>
+      <c r="N52" s="49"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="48"/>
+      <c r="R52" s="47"/>
+      <c r="S52" s="48"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="47"/>
+      <c r="V52" s="48"/>
+      <c r="W52" s="47"/>
+      <c r="X52" s="48"/>
+      <c r="Y52" s="27"/>
+    </row>
+    <row r="53" spans="2:25">
+      <c r="B53" s="25"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="47"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="49"/>
+      <c r="N53" s="49"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="47"/>
+      <c r="Q53" s="48"/>
+      <c r="R53" s="47"/>
+      <c r="S53" s="48"/>
+      <c r="T53" s="26"/>
+      <c r="U53" s="47"/>
+      <c r="V53" s="48"/>
+      <c r="W53" s="47"/>
+      <c r="X53" s="48"/>
+      <c r="Y53" s="27"/>
+    </row>
+    <row r="54" spans="2:25">
+      <c r="B54" s="25"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="49"/>
+      <c r="N54" s="49"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="47"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="47"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="26"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="48"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="48"/>
+      <c r="Y54" s="27"/>
+    </row>
+    <row r="55" spans="2:25">
+      <c r="B55" s="25"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="47"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="48"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="49"/>
+      <c r="K55" s="48"/>
+      <c r="L55" s="47"/>
+      <c r="M55" s="49"/>
+      <c r="N55" s="49"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="47"/>
+      <c r="Q55" s="48"/>
+      <c r="R55" s="47"/>
+      <c r="S55" s="48"/>
+      <c r="T55" s="26"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="48"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="48"/>
+      <c r="Y55" s="27"/>
+    </row>
+    <row r="56" spans="2:25">
+      <c r="B56" s="25"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="48"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="49"/>
+      <c r="K56" s="48"/>
+      <c r="L56" s="47"/>
+      <c r="M56" s="49"/>
+      <c r="N56" s="49"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="47"/>
+      <c r="Q56" s="48"/>
+      <c r="R56" s="47"/>
+      <c r="S56" s="48"/>
+      <c r="T56" s="26"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="48"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="48"/>
+      <c r="Y56" s="27"/>
+    </row>
+    <row r="57" spans="2:25">
+      <c r="B57" s="25"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="47"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="47"/>
+      <c r="H57" s="48"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="49"/>
+      <c r="K57" s="48"/>
+      <c r="L57" s="47"/>
+      <c r="M57" s="49"/>
+      <c r="N57" s="49"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="47"/>
+      <c r="Q57" s="48"/>
+      <c r="R57" s="47"/>
+      <c r="S57" s="48"/>
+      <c r="T57" s="26"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="48"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="48"/>
+      <c r="Y57" s="27"/>
+    </row>
+    <row r="58" spans="2:25">
+      <c r="B58" s="25"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="47"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="49"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="47"/>
+      <c r="M58" s="49"/>
+      <c r="N58" s="49"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="47"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="47"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="26"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="48"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="48"/>
+      <c r="Y58" s="27"/>
+    </row>
+    <row r="59" spans="2:25">
+      <c r="C59" s="14"/>
+    </row>
+    <row r="63" spans="2:25">
+      <c r="C63" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="231">
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="B5:Y5"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B6:Y6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="U56:V56"/>
+    <mergeCell ref="U57:V57"/>
+    <mergeCell ref="U58:V58"/>
+    <mergeCell ref="W47:X47"/>
+    <mergeCell ref="W48:X48"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="W50:X50"/>
+    <mergeCell ref="W51:X51"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="W53:X53"/>
+    <mergeCell ref="W54:X54"/>
+    <mergeCell ref="W55:X55"/>
+    <mergeCell ref="W56:X56"/>
+    <mergeCell ref="W57:X57"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="U47:V47"/>
+    <mergeCell ref="U48:V48"/>
+    <mergeCell ref="U49:V49"/>
+    <mergeCell ref="U50:V50"/>
+    <mergeCell ref="U51:V51"/>
+    <mergeCell ref="U52:V52"/>
+    <mergeCell ref="U53:V53"/>
+    <mergeCell ref="U54:V54"/>
+    <mergeCell ref="U55:V55"/>
+    <mergeCell ref="P56:Q56"/>
+    <mergeCell ref="P57:Q57"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="R50:S50"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="R56:S56"/>
+    <mergeCell ref="R57:S57"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="I57:K57"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="L47:O47"/>
+    <mergeCell ref="L48:O48"/>
+    <mergeCell ref="L49:O49"/>
+    <mergeCell ref="L50:O50"/>
+    <mergeCell ref="L51:O51"/>
+    <mergeCell ref="L52:O52"/>
+    <mergeCell ref="L53:O53"/>
+    <mergeCell ref="L54:O54"/>
+    <mergeCell ref="L55:O55"/>
+    <mergeCell ref="L56:O56"/>
+    <mergeCell ref="L57:O57"/>
+    <mergeCell ref="L58:O58"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E57:F57"/>
+    <mergeCell ref="E58:F58"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="B10:Y10"/>
+    <mergeCell ref="B11:Y11"/>
+    <mergeCell ref="B15:Y15"/>
+    <mergeCell ref="B14:Y14"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="L45:O45"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="R45:S45"/>
+    <mergeCell ref="U45:V45"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="L46:O46"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="R46:S46"/>
+    <mergeCell ref="U46:V46"/>
+    <mergeCell ref="W46:X46"/>
+    <mergeCell ref="U43:V43"/>
+    <mergeCell ref="W43:X43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="L44:O44"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="R44:S44"/>
+    <mergeCell ref="U44:V44"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="L43:O43"/>
+    <mergeCell ref="P43:Q43"/>
+    <mergeCell ref="R43:S43"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:O42"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:K19"/>
@@ -3035,202 +3705,29 @@
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="U17:V17"/>
     <mergeCell ref="W17:X17"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="R22:S22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="R25:S25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="B10:Y10"/>
-    <mergeCell ref="B11:Y11"/>
-    <mergeCell ref="B15:Y15"/>
-    <mergeCell ref="B14:Y14"/>
-    <mergeCell ref="B7:C9"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="L33:O33"/>
-    <mergeCell ref="L34:O34"/>
-    <mergeCell ref="L35:O35"/>
-    <mergeCell ref="L36:O36"/>
-    <mergeCell ref="L37:O37"/>
-    <mergeCell ref="L38:O38"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="P37:Q37"/>
-    <mergeCell ref="P38:Q38"/>
-    <mergeCell ref="P39:Q39"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="R35:S35"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="R38:S38"/>
-    <mergeCell ref="R39:S39"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="B5:Y5"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B6:Y6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="F9:R9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="56" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3253,14 +3750,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="50" customHeight="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="72"/>
+      <c r="A1" s="73"/>
+      <c r="B1" s="73"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="77"/>
+      <c r="B2" s="78"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3285,26 +3782,26 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="250" customHeight="1" thickBot="1">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="23.5" customHeight="1">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="76"/>
     </row>
     <row r="5" spans="1:24" ht="52" customHeight="1">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="73"/>
+      <c r="B5" s="74"/>
     </row>
     <row r="6" spans="1:24" ht="250" customHeight="1" thickBot="1">
-      <c r="A6" s="74" t="s">
+      <c r="A6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="74"/>
+      <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:24" ht="1" customHeight="1"/>
   </sheetData>
@@ -3348,20 +3845,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="50" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
       <c r="M1" s="7"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -3381,14 +3878,14 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:23" ht="5.25" customHeight="1">
@@ -3407,44 +3904,44 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="30" customHeight="1">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="83" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="82" t="s">
+      <c r="D4" s="83" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:23" ht="30" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="13" t="s">
         <v>4</v>
       </c>

--- a/src/main/resources/KTP_REFUND_AFTER_Form.xlsx
+++ b/src/main/resources/KTP_REFUND_AFTER_Form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/backend/sdk/tpay-server/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338E35B2-AEC4-9B41-BECE-A78181CF71D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1098431C-92D4-2146-AE0D-8737068374FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1168,7 +1168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1238,31 +1238,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,9 +1289,18 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1308,15 +1308,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1830,8 +1821,8 @@
   </sheetPr>
   <dimension ref="B1:Z63"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A21" zoomScale="113" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42:K42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScale="113" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="15"/>
@@ -1863,89 +1854,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:26">
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="37"/>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
     </row>
     <row r="2" spans="2:26" ht="40" customHeight="1">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="2:26" ht="20" customHeight="1">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="2:26" ht="20" customHeight="1">
@@ -1976,138 +1967,138 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1" thickBot="1">
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
+      <c r="W5" s="35"/>
+      <c r="X5" s="35"/>
+      <c r="Y5" s="35"/>
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="2:26" ht="17.25" customHeight="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-      <c r="U6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="41"/>
-      <c r="X6" s="41"/>
-      <c r="Y6" s="42"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="39"/>
       <c r="Z6" s="8"/>
     </row>
     <row r="7" spans="2:26" ht="18" customHeight="1">
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="49"/>
       <c r="D7" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="32" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="31"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="43"/>
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="2:26" ht="18" customHeight="1">
-      <c r="B8" s="65"/>
-      <c r="C8" s="66"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="63"/>
       <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="32" t="s">
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="31"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="31"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="43"/>
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="2:26" ht="31.5" customHeight="1">
-      <c r="B9" s="67"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="32" t="s">
+      <c r="B9" s="64"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="34"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
       <c r="H9" s="45"/>
@@ -2121,1368 +2112,1368 @@
       <c r="P9" s="45"/>
       <c r="Q9" s="45"/>
       <c r="R9" s="46"/>
-      <c r="S9" s="29" t="s">
+      <c r="S9" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="31"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="43"/>
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="2:26" ht="5" customHeight="1">
-      <c r="B10" s="57"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="35"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+      <c r="V10" s="30"/>
+      <c r="W10" s="30"/>
+      <c r="X10" s="30"/>
+      <c r="Y10" s="32"/>
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="2:26" ht="19.5" customHeight="1">
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-      <c r="R11" s="59"/>
-      <c r="S11" s="59"/>
-      <c r="T11" s="59"/>
-      <c r="U11" s="59"/>
-      <c r="V11" s="59"/>
-      <c r="W11" s="59"/>
-      <c r="X11" s="59"/>
-      <c r="Y11" s="60"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="57"/>
       <c r="Z11" s="8"/>
     </row>
     <row r="12" spans="2:26" ht="18" customHeight="1">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="34"/>
-      <c r="D12" s="32" t="s">
+      <c r="C12" s="31"/>
+      <c r="D12" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="32" t="s">
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="32" t="s">
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O12" s="33"/>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="32" t="s">
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="34"/>
-      <c r="U12" s="32" t="s">
+      <c r="T12" s="31"/>
+      <c r="U12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="V12" s="33"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="32" t="s">
+      <c r="V12" s="30"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="Y12" s="35"/>
+      <c r="Y12" s="32"/>
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="2:26" ht="18.75" customHeight="1">
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="47">
+      <c r="C13" s="31"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="26">
         <v>0</v>
       </c>
-      <c r="T13" s="48"/>
-      <c r="U13" s="47">
+      <c r="T13" s="27"/>
+      <c r="U13" s="26">
         <v>0</v>
       </c>
-      <c r="V13" s="49"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="47">
+      <c r="V13" s="28"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="26">
         <v>0</v>
       </c>
-      <c r="Y13" s="50"/>
+      <c r="Y13" s="47"/>
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="2:26" ht="5" customHeight="1">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="35"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="30"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+      <c r="V14" s="30"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="32"/>
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="2:26" ht="19.25" customHeight="1">
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
-      <c r="U15" s="62"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="62"/>
-      <c r="X15" s="62"/>
-      <c r="Y15" s="63"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
+      <c r="K15" s="59"/>
+      <c r="L15" s="59"/>
+      <c r="M15" s="59"/>
+      <c r="N15" s="59"/>
+      <c r="O15" s="59"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="60"/>
       <c r="Z15" s="9"/>
     </row>
     <row r="16" spans="2:26" ht="21" customHeight="1">
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="51" t="s">
+      <c r="C16" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="51" t="s">
+      <c r="D16" s="49"/>
+      <c r="E16" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="52"/>
-      <c r="G16" s="51" t="s">
+      <c r="F16" s="49"/>
+      <c r="G16" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="51" t="s">
+      <c r="H16" s="49"/>
+      <c r="I16" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="55"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="51" t="s">
+      <c r="J16" s="52"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="51" t="s">
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="32" t="s">
+      <c r="Q16" s="49"/>
+      <c r="R16" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33"/>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="35"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="32"/>
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="2:26" ht="25" customHeight="1">
-      <c r="B17" s="72"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="53"/>
-      <c r="M17" s="56"/>
-      <c r="N17" s="56"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="32" t="s">
+      <c r="B17" s="69"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="51"/>
+      <c r="R17" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="S17" s="34"/>
+      <c r="S17" s="31"/>
       <c r="T17" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="U17" s="32" t="s">
+      <c r="U17" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="V17" s="34"/>
-      <c r="W17" s="32" t="s">
+      <c r="V17" s="31"/>
+      <c r="W17" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="X17" s="34"/>
+      <c r="X17" s="31"/>
       <c r="Y17" s="21" t="s">
         <v>8</v>
       </c>
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="2:26" ht="20" customHeight="1">
-      <c r="B18" s="25"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="48"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="48"/>
-      <c r="Y18" s="27"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="27"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="27"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="27"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="25"/>
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="2:26" ht="20" customHeight="1">
-      <c r="B19" s="25"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="49"/>
-      <c r="N19" s="49"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="27"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="27"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="27"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="27"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="27"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="25"/>
       <c r="Z19" s="4"/>
     </row>
     <row r="20" spans="2:26" ht="20" customHeight="1">
-      <c r="B20" s="25"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="49"/>
-      <c r="N20" s="49"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="48"/>
-      <c r="Y20" s="27"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="27"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="27"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="27"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="27"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="25"/>
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="2:26" ht="20" customHeight="1">
-      <c r="B21" s="25"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="23"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="26"/>
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="24"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="27"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="27"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="25"/>
       <c r="Z21" s="4"/>
     </row>
     <row r="22" spans="2:26" ht="20" customHeight="1">
-      <c r="B22" s="25"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="28"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="23"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="26"/>
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="24"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="24"/>
-      <c r="Y22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="27"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="25"/>
       <c r="Z22" s="4"/>
     </row>
     <row r="23" spans="2:26" ht="20" customHeight="1">
-      <c r="B23" s="25"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="26"/>
       <c r="J23" s="28"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="23"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="26"/>
       <c r="M23" s="28"/>
       <c r="N23" s="28"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="24"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="24"/>
-      <c r="Y23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="27"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="25"/>
       <c r="Z23" s="4"/>
     </row>
     <row r="24" spans="2:26" ht="20" customHeight="1">
-      <c r="B24" s="25"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="26"/>
       <c r="J24" s="28"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="23"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="26"/>
       <c r="M24" s="28"/>
       <c r="N24" s="28"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="24"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="24"/>
-      <c r="Y24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="24"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="25"/>
       <c r="Z24" s="4"/>
     </row>
     <row r="25" spans="2:26" ht="20" customHeight="1">
-      <c r="B25" s="25"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="26"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="23"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="26"/>
       <c r="M25" s="28"/>
       <c r="N25" s="28"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="24"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="24"/>
-      <c r="Y25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="27"/>
+      <c r="T25" s="24"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="25"/>
       <c r="Z25" s="4"/>
     </row>
     <row r="26" spans="2:26" ht="20" customHeight="1">
-      <c r="B26" s="25"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="26"/>
       <c r="J26" s="28"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="23"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="26"/>
       <c r="M26" s="28"/>
       <c r="N26" s="28"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="24"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="24"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="24"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="24"/>
-      <c r="Y26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="24"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="26"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="25"/>
       <c r="Z26" s="4"/>
     </row>
     <row r="27" spans="2:26" ht="20" customHeight="1">
-      <c r="B27" s="25"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="26"/>
       <c r="J27" s="28"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="23"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="26"/>
       <c r="M27" s="28"/>
       <c r="N27" s="28"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="24"/>
-      <c r="Y27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="27"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="26"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="25"/>
       <c r="Z27" s="4"/>
     </row>
     <row r="28" spans="2:26" ht="20" customHeight="1">
-      <c r="B28" s="25"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="26"/>
       <c r="J28" s="28"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="23"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="26"/>
       <c r="M28" s="28"/>
       <c r="N28" s="28"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="24"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="24"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="24"/>
-      <c r="Y28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="27"/>
+      <c r="T28" s="24"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="26"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="25"/>
       <c r="Z28" s="4"/>
     </row>
     <row r="29" spans="2:26" ht="20" customHeight="1">
-      <c r="B29" s="25"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="26"/>
       <c r="J29" s="28"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="23"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="26"/>
       <c r="M29" s="28"/>
       <c r="N29" s="28"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="27"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="26"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="25"/>
       <c r="Z29" s="4"/>
     </row>
     <row r="30" spans="2:26" ht="20" customHeight="1">
-      <c r="B30" s="25"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="26"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="23"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="26"/>
       <c r="M30" s="28"/>
       <c r="N30" s="28"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="24"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="24"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="24"/>
-      <c r="Y30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="24"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="26"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="25"/>
       <c r="Z30" s="4"/>
     </row>
     <row r="31" spans="2:26" ht="20" customHeight="1">
-      <c r="B31" s="25"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="26"/>
       <c r="J31" s="28"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="23"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="26"/>
       <c r="M31" s="28"/>
       <c r="N31" s="28"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="24"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="24"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="24"/>
-      <c r="Y31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="24"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="26"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="25"/>
       <c r="Z31" s="4"/>
     </row>
     <row r="32" spans="2:26" ht="20" customHeight="1">
-      <c r="B32" s="25"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="23"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="26"/>
       <c r="J32" s="28"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="23"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="26"/>
       <c r="M32" s="28"/>
       <c r="N32" s="28"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="24"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="23"/>
-      <c r="V32" s="24"/>
-      <c r="W32" s="23"/>
-      <c r="X32" s="24"/>
-      <c r="Y32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="24"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="26"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="25"/>
       <c r="Z32" s="4"/>
     </row>
     <row r="33" spans="2:26" ht="20" customHeight="1">
-      <c r="B33" s="25"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="23"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="26"/>
       <c r="J33" s="28"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="23"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="26"/>
       <c r="M33" s="28"/>
       <c r="N33" s="28"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="23"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="27"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="26"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="25"/>
       <c r="Z33" s="4"/>
     </row>
     <row r="34" spans="2:26" ht="20" customHeight="1">
-      <c r="B34" s="25"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="23"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="26"/>
       <c r="J34" s="28"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="23"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="26"/>
       <c r="M34" s="28"/>
       <c r="N34" s="28"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="23"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="23"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="27"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="25"/>
       <c r="Z34" s="4"/>
     </row>
     <row r="35" spans="2:26" ht="20" customHeight="1">
-      <c r="B35" s="25"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="23"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="26"/>
       <c r="J35" s="28"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="23"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="26"/>
       <c r="M35" s="28"/>
       <c r="N35" s="28"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="23"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="23"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="27"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="25"/>
       <c r="Z35" s="15"/>
     </row>
     <row r="36" spans="2:26" ht="20" customHeight="1">
-      <c r="B36" s="25"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="23"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="26"/>
       <c r="J36" s="28"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="23"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="26"/>
       <c r="M36" s="28"/>
       <c r="N36" s="28"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="26"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="25"/>
     </row>
     <row r="37" spans="2:26" ht="20" customHeight="1">
-      <c r="B37" s="25"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="23"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="26"/>
       <c r="J37" s="28"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="23"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="26"/>
       <c r="M37" s="28"/>
       <c r="N37" s="28"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="23"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="23"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="23"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="27"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="25"/>
     </row>
     <row r="38" spans="2:26" ht="20" customHeight="1">
-      <c r="B38" s="25"/>
-      <c r="C38" s="23"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="23"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="26"/>
       <c r="J38" s="28"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="23"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="26"/>
       <c r="M38" s="28"/>
       <c r="N38" s="28"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="27"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="26"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="25"/>
     </row>
     <row r="39" spans="2:26" ht="20" customHeight="1">
-      <c r="B39" s="25"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="23"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="26"/>
       <c r="J39" s="28"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="23"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="26"/>
       <c r="M39" s="28"/>
       <c r="N39" s="28"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="23"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="23"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="23"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="27"/>
-    </row>
-    <row r="40" spans="2:26">
-      <c r="B40" s="25"/>
-      <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
-      <c r="E40" s="47"/>
-      <c r="F40" s="48"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="48"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="48"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="49"/>
-      <c r="N40" s="49"/>
-      <c r="O40" s="48"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="48"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="47"/>
-      <c r="V40" s="48"/>
-      <c r="W40" s="47"/>
-      <c r="X40" s="48"/>
-      <c r="Y40" s="27"/>
-    </row>
-    <row r="41" spans="2:26">
-      <c r="B41" s="25"/>
-      <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
-      <c r="E41" s="47"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="47"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="47"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="48"/>
-      <c r="L41" s="47"/>
-      <c r="M41" s="49"/>
-      <c r="N41" s="49"/>
-      <c r="O41" s="48"/>
-      <c r="P41" s="47"/>
-      <c r="Q41" s="48"/>
-      <c r="R41" s="47"/>
-      <c r="S41" s="48"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="47"/>
-      <c r="X41" s="48"/>
-      <c r="Y41" s="27"/>
-    </row>
-    <row r="42" spans="2:26">
-      <c r="B42" s="25"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="47"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="47"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="48"/>
-      <c r="L42" s="47"/>
-      <c r="M42" s="49"/>
-      <c r="N42" s="49"/>
-      <c r="O42" s="48"/>
-      <c r="P42" s="47"/>
-      <c r="Q42" s="48"/>
-      <c r="R42" s="47"/>
-      <c r="S42" s="48"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="47"/>
-      <c r="V42" s="48"/>
-      <c r="W42" s="47"/>
-      <c r="X42" s="48"/>
-      <c r="Y42" s="27"/>
-    </row>
-    <row r="43" spans="2:26">
-      <c r="B43" s="25"/>
-      <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="47"/>
-      <c r="M43" s="49"/>
-      <c r="N43" s="49"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="47"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="47"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="47"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="47"/>
-      <c r="X43" s="48"/>
-      <c r="Y43" s="27"/>
-    </row>
-    <row r="44" spans="2:26">
-      <c r="B44" s="25"/>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="48"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="47"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="47"/>
-      <c r="M44" s="49"/>
-      <c r="N44" s="49"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="47"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="47"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="47"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="47"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="27"/>
-    </row>
-    <row r="45" spans="2:26">
-      <c r="B45" s="25"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="48"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="48"/>
-      <c r="G45" s="47"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="47"/>
-      <c r="J45" s="49"/>
-      <c r="K45" s="48"/>
-      <c r="L45" s="47"/>
-      <c r="M45" s="49"/>
-      <c r="N45" s="49"/>
-      <c r="O45" s="48"/>
-      <c r="P45" s="47"/>
-      <c r="Q45" s="48"/>
-      <c r="R45" s="47"/>
-      <c r="S45" s="48"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="47"/>
-      <c r="V45" s="48"/>
-      <c r="W45" s="47"/>
-      <c r="X45" s="48"/>
-      <c r="Y45" s="27"/>
-    </row>
-    <row r="46" spans="2:26">
-      <c r="B46" s="25"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
-      <c r="E46" s="47"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="47"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="49"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="47"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="47"/>
-      <c r="S46" s="48"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="47"/>
-      <c r="V46" s="48"/>
-      <c r="W46" s="47"/>
-      <c r="X46" s="48"/>
-      <c r="Y46" s="27"/>
-    </row>
-    <row r="47" spans="2:26">
-      <c r="B47" s="25"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="47"/>
-      <c r="H47" s="48"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="48"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="49"/>
-      <c r="N47" s="49"/>
-      <c r="O47" s="48"/>
-      <c r="P47" s="47"/>
-      <c r="Q47" s="48"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="48"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="48"/>
-      <c r="W47" s="47"/>
-      <c r="X47" s="48"/>
-      <c r="Y47" s="27"/>
-    </row>
-    <row r="48" spans="2:26">
-      <c r="B48" s="25"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="47"/>
-      <c r="F48" s="48"/>
-      <c r="G48" s="47"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="49"/>
-      <c r="N48" s="49"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="48"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="48"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="48"/>
-      <c r="W48" s="47"/>
-      <c r="X48" s="48"/>
-      <c r="Y48" s="27"/>
-    </row>
-    <row r="49" spans="2:25">
-      <c r="B49" s="25"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="48"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="49"/>
-      <c r="N49" s="49"/>
-      <c r="O49" s="48"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="48"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="47"/>
-      <c r="V49" s="48"/>
-      <c r="W49" s="47"/>
-      <c r="X49" s="48"/>
-      <c r="Y49" s="27"/>
-    </row>
-    <row r="50" spans="2:25">
-      <c r="B50" s="25"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="49"/>
-      <c r="N50" s="49"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="48"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="47"/>
-      <c r="V50" s="48"/>
-      <c r="W50" s="47"/>
-      <c r="X50" s="48"/>
-      <c r="Y50" s="27"/>
-    </row>
-    <row r="51" spans="2:25">
-      <c r="B51" s="25"/>
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="48"/>
-      <c r="G51" s="47"/>
-      <c r="H51" s="48"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="48"/>
-      <c r="L51" s="47"/>
-      <c r="M51" s="49"/>
-      <c r="N51" s="49"/>
-      <c r="O51" s="48"/>
-      <c r="P51" s="47"/>
-      <c r="Q51" s="48"/>
-      <c r="R51" s="47"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="47"/>
-      <c r="V51" s="48"/>
-      <c r="W51" s="47"/>
-      <c r="X51" s="48"/>
-      <c r="Y51" s="27"/>
-    </row>
-    <row r="52" spans="2:25">
-      <c r="B52" s="25"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="47"/>
-      <c r="F52" s="48"/>
-      <c r="G52" s="47"/>
-      <c r="H52" s="48"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="47"/>
-      <c r="M52" s="49"/>
-      <c r="N52" s="49"/>
-      <c r="O52" s="48"/>
-      <c r="P52" s="47"/>
-      <c r="Q52" s="48"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="48"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="48"/>
-      <c r="W52" s="47"/>
-      <c r="X52" s="48"/>
-      <c r="Y52" s="27"/>
-    </row>
-    <row r="53" spans="2:25">
-      <c r="B53" s="25"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="48"/>
-      <c r="G53" s="47"/>
-      <c r="H53" s="48"/>
-      <c r="I53" s="47"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="47"/>
-      <c r="M53" s="49"/>
-      <c r="N53" s="49"/>
-      <c r="O53" s="48"/>
-      <c r="P53" s="47"/>
-      <c r="Q53" s="48"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="48"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="48"/>
-      <c r="W53" s="47"/>
-      <c r="X53" s="48"/>
-      <c r="Y53" s="27"/>
-    </row>
-    <row r="54" spans="2:25">
-      <c r="B54" s="25"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="47"/>
-      <c r="F54" s="48"/>
-      <c r="G54" s="47"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="47"/>
-      <c r="J54" s="49"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="47"/>
-      <c r="M54" s="49"/>
-      <c r="N54" s="49"/>
-      <c r="O54" s="48"/>
-      <c r="P54" s="47"/>
-      <c r="Q54" s="48"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="48"/>
-      <c r="T54" s="26"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="48"/>
-      <c r="W54" s="47"/>
-      <c r="X54" s="48"/>
-      <c r="Y54" s="27"/>
-    </row>
-    <row r="55" spans="2:25">
-      <c r="B55" s="25"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="47"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="47"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="47"/>
-      <c r="J55" s="49"/>
-      <c r="K55" s="48"/>
-      <c r="L55" s="47"/>
-      <c r="M55" s="49"/>
-      <c r="N55" s="49"/>
-      <c r="O55" s="48"/>
-      <c r="P55" s="47"/>
-      <c r="Q55" s="48"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="48"/>
-      <c r="T55" s="26"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="48"/>
-      <c r="W55" s="47"/>
-      <c r="X55" s="48"/>
-      <c r="Y55" s="27"/>
-    </row>
-    <row r="56" spans="2:25">
-      <c r="B56" s="25"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="47"/>
-      <c r="F56" s="48"/>
-      <c r="G56" s="47"/>
-      <c r="H56" s="48"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="47"/>
-      <c r="M56" s="49"/>
-      <c r="N56" s="49"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="47"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="47"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="26"/>
-      <c r="U56" s="47"/>
-      <c r="V56" s="48"/>
-      <c r="W56" s="47"/>
-      <c r="X56" s="48"/>
-      <c r="Y56" s="27"/>
-    </row>
-    <row r="57" spans="2:25">
-      <c r="B57" s="25"/>
-      <c r="C57" s="23"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="47"/>
-      <c r="F57" s="48"/>
-      <c r="G57" s="47"/>
-      <c r="H57" s="48"/>
-      <c r="I57" s="47"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="48"/>
-      <c r="L57" s="47"/>
-      <c r="M57" s="49"/>
-      <c r="N57" s="49"/>
-      <c r="O57" s="48"/>
-      <c r="P57" s="47"/>
-      <c r="Q57" s="48"/>
-      <c r="R57" s="47"/>
-      <c r="S57" s="48"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="47"/>
-      <c r="V57" s="48"/>
-      <c r="W57" s="47"/>
-      <c r="X57" s="48"/>
-      <c r="Y57" s="27"/>
-    </row>
-    <row r="58" spans="2:25">
-      <c r="B58" s="25"/>
-      <c r="C58" s="23"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="47"/>
-      <c r="F58" s="48"/>
-      <c r="G58" s="47"/>
-      <c r="H58" s="48"/>
-      <c r="I58" s="47"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="48"/>
-      <c r="L58" s="47"/>
-      <c r="M58" s="49"/>
-      <c r="N58" s="49"/>
-      <c r="O58" s="48"/>
-      <c r="P58" s="47"/>
-      <c r="Q58" s="48"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="48"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="47"/>
-      <c r="V58" s="48"/>
-      <c r="W58" s="47"/>
-      <c r="X58" s="48"/>
-      <c r="Y58" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="27"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="25"/>
+    </row>
+    <row r="40" spans="2:26" ht="20" customHeight="1">
+      <c r="B40" s="23"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="27"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="27"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="27"/>
+      <c r="W40" s="26"/>
+      <c r="X40" s="27"/>
+      <c r="Y40" s="25"/>
+    </row>
+    <row r="41" spans="2:26" ht="20" customHeight="1">
+      <c r="B41" s="23"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="27"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="27"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="27"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="27"/>
+      <c r="Y41" s="25"/>
+    </row>
+    <row r="42" spans="2:26" ht="20" customHeight="1">
+      <c r="B42" s="23"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="27"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="27"/>
+      <c r="T42" s="24"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="27"/>
+      <c r="W42" s="26"/>
+      <c r="X42" s="27"/>
+      <c r="Y42" s="25"/>
+    </row>
+    <row r="43" spans="2:26" ht="20" customHeight="1">
+      <c r="B43" s="23"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="27"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="27"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="27"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="27"/>
+      <c r="Y43" s="25"/>
+    </row>
+    <row r="44" spans="2:26" ht="20" customHeight="1">
+      <c r="B44" s="23"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="27"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="27"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="27"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="27"/>
+      <c r="Y44" s="25"/>
+    </row>
+    <row r="45" spans="2:26" ht="20" customHeight="1">
+      <c r="B45" s="23"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="27"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="27"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="27"/>
+      <c r="W45" s="26"/>
+      <c r="X45" s="27"/>
+      <c r="Y45" s="25"/>
+    </row>
+    <row r="46" spans="2:26" ht="20" customHeight="1">
+      <c r="B46" s="23"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="27"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="27"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="27"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="27"/>
+      <c r="Y46" s="25"/>
+    </row>
+    <row r="47" spans="2:26" ht="20" customHeight="1">
+      <c r="B47" s="23"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="27"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="27"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="27"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="27"/>
+      <c r="Y47" s="25"/>
+    </row>
+    <row r="48" spans="2:26" ht="20" customHeight="1">
+      <c r="B48" s="23"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="27"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="27"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="27"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="27"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="27"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="27"/>
+      <c r="Y48" s="25"/>
+    </row>
+    <row r="49" spans="2:25" ht="20" customHeight="1">
+      <c r="B49" s="23"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="27"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="27"/>
+      <c r="Y49" s="25"/>
+    </row>
+    <row r="50" spans="2:25" ht="20" customHeight="1">
+      <c r="B50" s="23"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="27"/>
+      <c r="W50" s="26"/>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="25"/>
+    </row>
+    <row r="51" spans="2:25" ht="20" customHeight="1">
+      <c r="B51" s="23"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="27"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="27"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="27"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="27"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="26"/>
+      <c r="V51" s="27"/>
+      <c r="W51" s="26"/>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="25"/>
+    </row>
+    <row r="52" spans="2:25" ht="20" customHeight="1">
+      <c r="B52" s="23"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="27"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="27"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="27"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="26"/>
+      <c r="V52" s="27"/>
+      <c r="W52" s="26"/>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="25"/>
+    </row>
+    <row r="53" spans="2:25" ht="20" customHeight="1">
+      <c r="B53" s="23"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="27"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="27"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="27"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="26"/>
+      <c r="V53" s="27"/>
+      <c r="W53" s="26"/>
+      <c r="X53" s="27"/>
+      <c r="Y53" s="25"/>
+    </row>
+    <row r="54" spans="2:25" ht="20" customHeight="1">
+      <c r="B54" s="23"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="27"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="27"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="27"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="27"/>
+      <c r="T54" s="24"/>
+      <c r="U54" s="26"/>
+      <c r="V54" s="27"/>
+      <c r="W54" s="26"/>
+      <c r="X54" s="27"/>
+      <c r="Y54" s="25"/>
+    </row>
+    <row r="55" spans="2:25" ht="20" customHeight="1">
+      <c r="B55" s="23"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="27"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="27"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="26"/>
+      <c r="V55" s="27"/>
+      <c r="W55" s="26"/>
+      <c r="X55" s="27"/>
+      <c r="Y55" s="25"/>
+    </row>
+    <row r="56" spans="2:25" ht="20" customHeight="1">
+      <c r="B56" s="23"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="27"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="27"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="27"/>
+      <c r="T56" s="24"/>
+      <c r="U56" s="26"/>
+      <c r="V56" s="27"/>
+      <c r="W56" s="26"/>
+      <c r="X56" s="27"/>
+      <c r="Y56" s="25"/>
+    </row>
+    <row r="57" spans="2:25" ht="20" customHeight="1">
+      <c r="B57" s="23"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="27"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="27"/>
+      <c r="P57" s="26"/>
+      <c r="Q57" s="27"/>
+      <c r="R57" s="26"/>
+      <c r="S57" s="27"/>
+      <c r="T57" s="24"/>
+      <c r="U57" s="26"/>
+      <c r="V57" s="27"/>
+      <c r="W57" s="26"/>
+      <c r="X57" s="27"/>
+      <c r="Y57" s="25"/>
+    </row>
+    <row r="58" spans="2:25" ht="20" customHeight="1">
+      <c r="B58" s="23"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="26"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="24"/>
+      <c r="U58" s="26"/>
+      <c r="V58" s="27"/>
+      <c r="W58" s="26"/>
+      <c r="X58" s="27"/>
+      <c r="Y58" s="25"/>
     </row>
     <row r="59" spans="2:25">
       <c r="C59" s="14"/>
@@ -3491,13 +3482,28 @@
       <c r="C63" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="231">
+  <mergeCells count="414">
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
     <mergeCell ref="U56:V56"/>
     <mergeCell ref="U57:V57"/>
     <mergeCell ref="U58:V58"/>
     <mergeCell ref="W47:X47"/>
     <mergeCell ref="W48:X48"/>
-    <mergeCell ref="W49:X49"/>
     <mergeCell ref="W50:X50"/>
     <mergeCell ref="W51:X51"/>
     <mergeCell ref="W52:X52"/>
@@ -3610,6 +3616,8 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="H12:M12"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C44:D44"/>
@@ -3619,6 +3627,21 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="I45:K45"/>
@@ -3635,7 +3658,6 @@
     <mergeCell ref="R46:S46"/>
     <mergeCell ref="U46:V46"/>
     <mergeCell ref="W46:X46"/>
-    <mergeCell ref="U43:V43"/>
     <mergeCell ref="W43:X43"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="G44:H44"/>
@@ -3667,6 +3689,29 @@
     <mergeCell ref="R42:S42"/>
     <mergeCell ref="U42:V42"/>
     <mergeCell ref="W42:X42"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="R40:S40"/>
+    <mergeCell ref="U40:V40"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="L16:O17"/>
+    <mergeCell ref="P16:Q17"/>
+    <mergeCell ref="R16:Y16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
     <mergeCell ref="I20:K20"/>
@@ -3675,14 +3720,28 @@
     <mergeCell ref="R20:S20"/>
     <mergeCell ref="U20:V20"/>
     <mergeCell ref="W20:X20"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="R40:S40"/>
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="B2:Y2"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="B5:Y5"/>
+    <mergeCell ref="B3:Y3"/>
+    <mergeCell ref="B6:Y6"/>
+    <mergeCell ref="F7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:Y7"/>
+    <mergeCell ref="F8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:Y8"/>
+    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:W12"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="I19:K19"/>
@@ -3698,36 +3757,151 @@
     <mergeCell ref="X13:Y13"/>
     <mergeCell ref="E16:F17"/>
     <mergeCell ref="G16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="L16:O17"/>
-    <mergeCell ref="P16:Q17"/>
-    <mergeCell ref="R16:Y16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="B2:Y2"/>
-    <mergeCell ref="B1:Y1"/>
-    <mergeCell ref="B5:Y5"/>
-    <mergeCell ref="B3:Y3"/>
-    <mergeCell ref="B6:Y6"/>
-    <mergeCell ref="F7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:Y7"/>
-    <mergeCell ref="F8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="F9:R9"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="L34:O34"/>
+    <mergeCell ref="L35:O35"/>
+    <mergeCell ref="L36:O36"/>
+    <mergeCell ref="L37:O37"/>
+    <mergeCell ref="L38:O38"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="P37:Q37"/>
+    <mergeCell ref="P38:Q38"/>
+    <mergeCell ref="P39:Q39"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="R25:S25"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="R38:S38"/>
+    <mergeCell ref="R39:S39"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W49:X49"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="U43:V43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="44" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="41" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3750,14 +3924,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="50" customHeight="1">
-      <c r="A1" s="73"/>
-      <c r="B1" s="73"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
     </row>
     <row r="2" spans="1:24" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="78"/>
+      <c r="B2" s="75"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3782,26 +3956,26 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="250" customHeight="1" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="74"/>
     </row>
     <row r="4" spans="1:24" ht="23.5" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="73"/>
     </row>
     <row r="5" spans="1:24" ht="52" customHeight="1">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="74"/>
+      <c r="B5" s="71"/>
     </row>
     <row r="6" spans="1:24" ht="250" customHeight="1" thickBot="1">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="75"/>
+      <c r="B6" s="72"/>
     </row>
     <row r="7" spans="1:24" ht="1" customHeight="1"/>
   </sheetData>
@@ -3845,20 +4019,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="50" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
       <c r="M1" s="7"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -3878,14 +4052,14 @@
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
       <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:23" ht="5.25" customHeight="1">
@@ -3904,44 +4078,44 @@
       <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:23" ht="30" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="80" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="80" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
       <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:23" ht="30" customHeight="1">
-      <c r="A5" s="54"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="13" t="s">
         <v>4</v>
       </c>
